--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.95100856605539</v>
+        <v>74.69463612064516</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.8181500705665</v>
+        <v>102.2004964350021</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.77304943227259</v>
+        <v>92.44662449456874</v>
       </c>
       <c r="AD2" t="n">
-        <v>53951.0085660554</v>
+        <v>74694.63612064515</v>
       </c>
       <c r="AE2" t="n">
-        <v>73818.15007056651</v>
+        <v>102200.496435002</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.578614313625803e-06</v>
+        <v>1.281202351923613e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>66773.04943227259</v>
+        <v>92446.62449456874</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.33942364813804</v>
+        <v>54.66865650669813</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.66715555267876</v>
+        <v>74.8000676433461</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.87716737363112</v>
+        <v>67.66125417003637</v>
       </c>
       <c r="AD3" t="n">
-        <v>44339.42364813804</v>
+        <v>54668.65650669813</v>
       </c>
       <c r="AE3" t="n">
-        <v>60667.15555267876</v>
+        <v>74800.06764334609</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.882047728656566e-06</v>
+        <v>1.670609199496114e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.05078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>54877.16737363112</v>
+        <v>67661.25417003637</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.37714470170843</v>
+        <v>54.38246119954784</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.71876716230919</v>
+        <v>74.40848259805739</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.92385324367579</v>
+        <v>67.30704145187684</v>
       </c>
       <c r="AD2" t="n">
-        <v>44377.14470170843</v>
+        <v>54382.46119954784</v>
       </c>
       <c r="AE2" t="n">
-        <v>60718.76716230919</v>
+        <v>74408.4825980574</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.551954765023997e-06</v>
+        <v>1.654198936595385e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.194010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>54923.85324367579</v>
+        <v>67307.04145187684</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.5821326896284</v>
+        <v>52.58744918746782</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.26275253704152</v>
+        <v>71.95246797278975</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.70223720720472</v>
+        <v>65.08542541540577</v>
       </c>
       <c r="AD3" t="n">
-        <v>42582.1326896284</v>
+        <v>52587.44918746782</v>
       </c>
       <c r="AE3" t="n">
-        <v>58262.75253704152</v>
+        <v>71952.46797278975</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.019492680505357e-05</v>
+        <v>1.765548256294013e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.055121527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>52702.23720720471</v>
+        <v>65085.42541540576</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.16238430055007</v>
+        <v>49.1924985672479</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.9519460391887</v>
+        <v>67.30734675955638</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.70740943485567</v>
+        <v>60.88362805129334</v>
       </c>
       <c r="AD2" t="n">
-        <v>40162.38430055007</v>
+        <v>49192.49856724789</v>
       </c>
       <c r="AE2" t="n">
-        <v>54951.9460391887</v>
+        <v>67307.34675955639</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.724820962516579e-06</v>
+        <v>1.840145394257692e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.404513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>49707.40943485567</v>
+        <v>60883.62805129334</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.69384095577472</v>
+        <v>50.10522038872971</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.67910848107641</v>
+        <v>68.55617302215207</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.36517251387069</v>
+        <v>62.01326808812598</v>
       </c>
       <c r="AD2" t="n">
-        <v>40693.84095577471</v>
+        <v>50105.22038872971</v>
       </c>
       <c r="AE2" t="n">
-        <v>55679.10848107642</v>
+        <v>68556.17302215207</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.013765531284298e-05</v>
+        <v>1.846860633693687e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.20703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>50365.17251387069</v>
+        <v>62013.26808812598</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.4571635004325</v>
+        <v>57.97712257999848</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.35527594520637</v>
+        <v>79.32685688405522</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.07224610072129</v>
+        <v>71.75601299900225</v>
       </c>
       <c r="AD2" t="n">
-        <v>40457.1635004325</v>
+        <v>57977.12257999848</v>
       </c>
       <c r="AE2" t="n">
-        <v>55355.27594520636</v>
+        <v>79326.85688405522</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.033983719234939e-06</v>
+        <v>1.770369733592123e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.688802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>50072.24610072128</v>
+        <v>71756.01299900225</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.23692948344393</v>
+        <v>56.3273846274393</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.26340674859233</v>
+        <v>77.06961263606306</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.22563599926898</v>
+        <v>69.71419697397555</v>
       </c>
       <c r="AD2" t="n">
-        <v>46236.92948344393</v>
+        <v>56327.3846274393</v>
       </c>
       <c r="AE2" t="n">
-        <v>63263.40674859233</v>
+        <v>77069.61263606306</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.074471236663557e-06</v>
+        <v>1.561245722876704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.289496527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>57225.63599926898</v>
+        <v>69714.19697397554</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.06983305244888</v>
+        <v>53.16028819644425</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.93004568927366</v>
+        <v>72.73625157674438</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.30584483753986</v>
+        <v>65.79440581224642</v>
       </c>
       <c r="AD3" t="n">
-        <v>43069.83305244888</v>
+        <v>53160.28819644425</v>
       </c>
       <c r="AE3" t="n">
-        <v>58930.04568927366</v>
+        <v>72736.25157674438</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.010305935435043e-05</v>
+        <v>1.73821237552884e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.055121527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>53305.84483753986</v>
+        <v>65794.40581224642</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.01915047094296</v>
+        <v>58.16876058221695</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.12421131137037</v>
+        <v>79.58906445316236</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.76779535474846</v>
+        <v>71.99319584572453</v>
       </c>
       <c r="AD2" t="n">
-        <v>41019.15047094296</v>
+        <v>58168.76058221696</v>
       </c>
       <c r="AE2" t="n">
-        <v>56124.21131137037</v>
+        <v>79589.06445316237</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.474512750807783e-06</v>
+        <v>1.698851992258779e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.934027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>50767.79535474846</v>
+        <v>71993.19584572453</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.82967628074609</v>
+        <v>51.55867667904374</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.23320848221271</v>
+        <v>70.54485604052475</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.77095139209622</v>
+        <v>63.81215399035995</v>
       </c>
       <c r="AD2" t="n">
-        <v>41829.67628074608</v>
+        <v>51558.67667904374</v>
       </c>
       <c r="AE2" t="n">
-        <v>57233.20848221271</v>
+        <v>70544.85604052476</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012030972969853e-05</v>
+        <v>1.792382054013786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.133246527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>51770.95139209621</v>
+        <v>63812.15399035995</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.69323927954154</v>
+        <v>51.42223967783918</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.04652935798987</v>
+        <v>70.35817691630109</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.60208866148285</v>
+        <v>63.64329125974633</v>
       </c>
       <c r="AD3" t="n">
-        <v>41693.23927954154</v>
+        <v>51422.23967783918</v>
       </c>
       <c r="AE3" t="n">
-        <v>57046.52935798987</v>
+        <v>70358.17691630109</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020360241238411e-05</v>
+        <v>1.807133807039505e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.115885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>51602.08866148285</v>
+        <v>63643.29125974633</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.25272786486538</v>
+        <v>53.16966821267031</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.18029044037146</v>
+        <v>72.74908572876198</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.53220658081366</v>
+        <v>65.8060150908083</v>
       </c>
       <c r="AD2" t="n">
-        <v>43252.72786486538</v>
+        <v>53169.66821267031</v>
       </c>
       <c r="AE2" t="n">
-        <v>59180.29044037146</v>
+        <v>72749.08572876199</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.832229469812638e-06</v>
+        <v>1.714654965289887e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.152777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>53532.20658081366</v>
+        <v>65806.0150908083</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.52919458491666</v>
+        <v>52.44613493272158</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.1903202867106</v>
+        <v>71.75911557510113</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.63671778918604</v>
+        <v>64.91052629918069</v>
       </c>
       <c r="AD3" t="n">
-        <v>42529.19458491666</v>
+        <v>52446.13493272159</v>
       </c>
       <c r="AE3" t="n">
-        <v>58190.3202867106</v>
+        <v>71759.11557510114</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01083587226737e-05</v>
+        <v>1.76280949585019e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.094184027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>52636.71778918604</v>
+        <v>64910.52629918068</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.98381932558288</v>
+        <v>61.40658550400373</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.75831084860344</v>
+        <v>84.01919935390302</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.10067556763226</v>
+        <v>76.00052488927329</v>
       </c>
       <c r="AD2" t="n">
-        <v>50983.81932558288</v>
+        <v>61406.58550400373</v>
       </c>
       <c r="AE2" t="n">
-        <v>69758.31084860345</v>
+        <v>84019.19935390302</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.080020533437901e-06</v>
+        <v>1.373549939234314e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.528211805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>63100.67556763226</v>
+        <v>76000.52488927329</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.0636780806846</v>
+        <v>54.31585205851324</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.2898683022533</v>
+        <v>74.31734503270602</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.53588788886017</v>
+        <v>67.22460192785016</v>
       </c>
       <c r="AD3" t="n">
-        <v>44063.6780806846</v>
+        <v>54315.85205851324</v>
       </c>
       <c r="AE3" t="n">
-        <v>60289.86830225329</v>
+        <v>74317.34503270601</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.909753911937693e-06</v>
+        <v>1.684592486769035e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.061631944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>54535.88788886017</v>
+        <v>67224.60192785016</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.97286269678585</v>
+        <v>50.49575771192242</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.06087833669645</v>
+        <v>69.09052341703479</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.71050679028883</v>
+        <v>62.49662083128674</v>
       </c>
       <c r="AD2" t="n">
-        <v>40972.86269678585</v>
+        <v>50495.75771192242</v>
       </c>
       <c r="AE2" t="n">
-        <v>56060.87833669645</v>
+        <v>69090.52341703478</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01891587555658e-05</v>
+        <v>1.837346439822685e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.16796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>50710.50679028883</v>
+        <v>62496.62083128674</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.24389014733227</v>
+        <v>49.41035930079099</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.06346593453976</v>
+        <v>67.60543342652711</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.80828602791392</v>
+        <v>61.15326574513576</v>
       </c>
       <c r="AD2" t="n">
-        <v>40243.89014733227</v>
+        <v>49410.35930079099</v>
       </c>
       <c r="AE2" t="n">
-        <v>55063.46593453976</v>
+        <v>67605.43342652712</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.927956660194289e-06</v>
+        <v>1.852239372867403e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.317708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>49808.28602791391</v>
+        <v>61153.26574513576</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.0954103226276</v>
+        <v>49.14757382369495</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.86030928791226</v>
+        <v>67.24587874348745</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.62451836650779</v>
+        <v>60.82802645640712</v>
       </c>
       <c r="AD2" t="n">
-        <v>40095.4103226276</v>
+        <v>49147.57382369495</v>
       </c>
       <c r="AE2" t="n">
-        <v>54860.30928791226</v>
+        <v>67245.87874348745</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.47493248870763e-06</v>
+        <v>1.82206465404647e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.513020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>49624.51836650779</v>
+        <v>60828.02645640713</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.22797491573544</v>
+        <v>67.86151621534829</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.09237529843445</v>
+        <v>92.85112032460505</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.40285737523389</v>
+        <v>83.98953971821325</v>
       </c>
       <c r="AD2" t="n">
-        <v>51227.97491573544</v>
+        <v>67861.51621534828</v>
       </c>
       <c r="AE2" t="n">
-        <v>70092.37529843445</v>
+        <v>92851.12032460504</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.523083794882417e-06</v>
+        <v>1.551710752987952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.396267361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>63402.85737523389</v>
+        <v>83989.53971821326</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.32451717902801</v>
+        <v>52.14949180319469</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.91027163024403</v>
+        <v>71.35323535831138</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.38339658344181</v>
+        <v>64.54338272062476</v>
       </c>
       <c r="AD2" t="n">
-        <v>42324.51717902801</v>
+        <v>52149.49180319469</v>
       </c>
       <c r="AE2" t="n">
-        <v>57910.27163024403</v>
+        <v>71353.23535831139</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.006578876850243e-05</v>
+        <v>1.768519379328092e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.122395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>52383.3965834418</v>
+        <v>64543.38272062477</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.99865578182787</v>
+        <v>51.823630405998</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.46441369044114</v>
+        <v>70.90737741867686</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.98009069975057</v>
+        <v>64.14007683698328</v>
       </c>
       <c r="AD3" t="n">
-        <v>41998.65578182787</v>
+        <v>51823.630405998</v>
       </c>
       <c r="AE3" t="n">
-        <v>57464.41369044114</v>
+        <v>70907.37741867686</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020956464877454e-05</v>
+        <v>1.793780234328033e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.094184027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>51980.09069975057</v>
+        <v>64140.07683698328</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.57645408568769</v>
+        <v>58.74910951208253</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.46444752192171</v>
+        <v>80.38312346219185</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.12117393388176</v>
+        <v>72.71147097740132</v>
       </c>
       <c r="AD2" t="n">
-        <v>48576.45408568768</v>
+        <v>58749.10951208253</v>
       </c>
       <c r="AE2" t="n">
-        <v>66464.44752192171</v>
+        <v>80383.12346219184</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.552715907910209e-06</v>
+        <v>1.462419106737746e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.408854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60121.17393388176</v>
+        <v>72711.47097740132</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.63017620614912</v>
+        <v>53.80283163254396</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.6967319127612</v>
+        <v>73.61540785303136</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.99935960390887</v>
+        <v>66.58965664742841</v>
       </c>
       <c r="AD3" t="n">
-        <v>43630.17620614912</v>
+        <v>53802.83163254397</v>
       </c>
       <c r="AE3" t="n">
-        <v>59696.7319127612</v>
+        <v>73615.40785303136</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.983166373867944e-06</v>
+        <v>1.707010195133859e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.063802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>53999.35960390887</v>
+        <v>66589.65664742842</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.09062266326318</v>
+        <v>79.28122825073687</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.32337328967668</v>
+        <v>108.4760741335543</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.08479169854587</v>
+        <v>98.12326986540178</v>
       </c>
       <c r="AD2" t="n">
-        <v>63090.62266326317</v>
+        <v>79281.22825073688</v>
       </c>
       <c r="AE2" t="n">
-        <v>86323.37328967667</v>
+        <v>108476.0741335543</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.050404365585186e-06</v>
+        <v>1.296880331398757e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.372829861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>78084.79169854587</v>
+        <v>98123.26986540179</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.43535490388629</v>
+        <v>49.72834753294818</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.32543646128458</v>
+        <v>68.04051895441508</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.04525445526495</v>
+        <v>61.5468273208886</v>
       </c>
       <c r="AD2" t="n">
-        <v>40435.35490388628</v>
+        <v>49728.34753294818</v>
       </c>
       <c r="AE2" t="n">
-        <v>55325.43646128458</v>
+        <v>68040.51895441508</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.005832366457317e-05</v>
+        <v>1.853178276821637e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.254774305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>50045.25445526495</v>
+        <v>61546.82732088859</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.35285893385657</v>
+        <v>50.9813718287416</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.58080595250493</v>
+        <v>69.75496207544927</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.18081324416909</v>
+        <v>63.09764639668786</v>
       </c>
       <c r="AD2" t="n">
-        <v>41352.85893385657</v>
+        <v>50981.3718287416</v>
       </c>
       <c r="AE2" t="n">
-        <v>56580.80595250493</v>
+        <v>69754.96207544926</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.017957554214291e-05</v>
+        <v>1.818506881811827e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.144097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>51180.8132441691</v>
+        <v>63097.64639668786</v>
       </c>
     </row>
   </sheetData>
